--- a/ig/nr-update-annuaire/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-update-annuaire/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:12:57+00:00</t>
+    <t>2024-02-07T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-update-annuaire/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:21:35+00:00</t>
+    <t>2024-02-07T14:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-update-annuaire/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:23:50+00:00</t>
+    <t>2024-02-07T15:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1920,7 +1920,7 @@
     <t>Bundle.entry:Organization.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {http://interopsante.org/fhir/StructureDefinition/FrOrganization}
+    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization}
 </t>
   </si>
   <si>

--- a/ig/nr-update-annuaire/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-update-annuaire/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T15:08:37+00:00</t>
+    <t>2024-02-07T15:59:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-update-annuaire/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14414" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14414" uniqueCount="688">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T15:59:24+00:00</t>
+    <t>2024-04-11T12:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -902,7 +902,7 @@
     <t>Bundle.entry:Appointment.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Appointment {http://interopsante.org/fhir/StructureDefinition/FrAppointment}
+    <t xml:space="preserve">Appointment {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-appointment}
 </t>
   </si>
   <si>
@@ -912,10 +912,6 @@
     <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s).</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-2:Either start and end are specified, or neither {start.exists() = end.exists()}</t>
-  </si>
-  <si>
     <t>Act[@moodCode &lt;= 'INT']</t>
   </si>
   <si>
@@ -1021,7 +1017,7 @@
     <t>Bundle.entry:Slot.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Slot {http://interopsante.org/fhir/StructureDefinition/FrSlot}
+    <t xml:space="preserve">Slot {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-slot}
 </t>
   </si>
   <si>
@@ -1029,10 +1025,6 @@
   </si>
   <si>
     <t>A slot of time on a schedule that may be available for booking appointments.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Bundle.entry:Slot.search</t>
@@ -1141,7 +1133,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Schedule {http://interopsante.org/fhir/StructureDefinition/FrSchedule}
+    <t xml:space="preserve">Schedule {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-schedule}
 </t>
   </si>
   <si>
@@ -1254,7 +1246,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}
+    <t xml:space="preserve">Patient {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient}
 </t>
   </si>
   <si>
@@ -1696,7 +1688,7 @@
     <t>Bundle.entry:Location.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Location {http://interopsante.org/fhir/StructureDefinition/FrLocation}
+    <t xml:space="preserve">Location {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location}
 </t>
   </si>
   <si>
@@ -1808,7 +1800,7 @@
     <t>Bundle.entry:HealthcareService.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">HealthcareService {http://interopsante.org/fhir/StructureDefinition/FrHealthcareService}
+    <t xml:space="preserve">HealthcareService {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service}
 </t>
   </si>
   <si>
@@ -1930,10 +1922,6 @@
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -2039,7 +2027,7 @@
     <t>Bundle.entry:RelatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">RelatedPerson {http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson}
+    <t xml:space="preserve">RelatedPerson {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person}
 </t>
   </si>
   <si>
@@ -8739,13 +8727,13 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8756,7 +8744,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>203</v>
@@ -8868,7 +8856,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>207</v>
@@ -8980,7 +8968,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>208</v>
@@ -9094,7 +9082,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>209</v>
@@ -9210,7 +9198,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>210</v>
@@ -9256,7 +9244,7 @@
         <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>77</v>
@@ -9324,7 +9312,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>216</v>
@@ -9438,7 +9426,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>221</v>
@@ -9550,7 +9538,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>225</v>
@@ -9662,7 +9650,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>226</v>
@@ -9776,7 +9764,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>227</v>
@@ -9892,7 +9880,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>228</v>
@@ -10006,7 +9994,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>233</v>
@@ -10120,7 +10108,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>237</v>
@@ -10234,7 +10222,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>240</v>
@@ -10348,7 +10336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>243</v>
@@ -10462,7 +10450,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>246</v>
@@ -10576,7 +10564,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>249</v>
@@ -10688,7 +10676,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>253</v>
@@ -10800,7 +10788,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>254</v>
@@ -10914,7 +10902,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>255</v>
@@ -11030,7 +11018,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>256</v>
@@ -11144,7 +11132,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>259</v>
@@ -11258,7 +11246,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>262</v>
@@ -11372,7 +11360,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>266</v>
@@ -11486,7 +11474,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>270</v>
@@ -11600,13 +11588,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -11714,7 +11702,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>188</v>
@@ -11826,7 +11814,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>189</v>
@@ -11940,7 +11928,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>190</v>
@@ -12056,7 +12044,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>191</v>
@@ -12168,7 +12156,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>194</v>
@@ -12282,7 +12270,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>198</v>
@@ -12308,13 +12296,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12377,7 +12365,7 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
@@ -12394,7 +12382,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>203</v>
@@ -12506,7 +12494,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>207</v>
@@ -12618,7 +12606,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>208</v>
@@ -12732,7 +12720,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>209</v>
@@ -12848,7 +12836,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>210</v>
@@ -12894,7 +12882,7 @@
         <v>77</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>77</v>
@@ -12962,7 +12950,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>216</v>
@@ -13076,7 +13064,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>221</v>
@@ -13188,7 +13176,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>225</v>
@@ -13300,7 +13288,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>226</v>
@@ -13414,7 +13402,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>227</v>
@@ -13530,7 +13518,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>228</v>
@@ -13644,7 +13632,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>233</v>
@@ -13758,7 +13746,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>237</v>
@@ -13872,7 +13860,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>240</v>
@@ -13986,7 +13974,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>243</v>
@@ -14100,7 +14088,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>246</v>
@@ -14214,7 +14202,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>249</v>
@@ -14326,7 +14314,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>253</v>
@@ -14438,7 +14426,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>254</v>
@@ -14552,7 +14540,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>255</v>
@@ -14668,7 +14656,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>256</v>
@@ -14782,7 +14770,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>259</v>
@@ -14896,7 +14884,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>262</v>
@@ -15010,7 +14998,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>266</v>
@@ -15124,7 +15112,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>270</v>
@@ -15238,13 +15226,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -15352,7 +15340,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>188</v>
@@ -15464,7 +15452,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>189</v>
@@ -15578,7 +15566,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>190</v>
@@ -15694,7 +15682,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>191</v>
@@ -15806,7 +15794,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>194</v>
@@ -15920,14 +15908,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>198</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -15946,13 +15934,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16015,7 +16003,7 @@
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>77</v>
@@ -16032,7 +16020,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>203</v>
@@ -16144,7 +16132,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>207</v>
@@ -16256,7 +16244,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>208</v>
@@ -16370,7 +16358,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>209</v>
@@ -16486,7 +16474,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>210</v>
@@ -16532,7 +16520,7 @@
         <v>77</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>77</v>
@@ -16600,7 +16588,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>216</v>
@@ -16714,7 +16702,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>221</v>
@@ -16826,7 +16814,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>225</v>
@@ -16938,7 +16926,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>226</v>
@@ -17052,7 +17040,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>227</v>
@@ -17168,7 +17156,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>228</v>
@@ -17282,7 +17270,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>233</v>
@@ -17396,7 +17384,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>237</v>
@@ -17510,7 +17498,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>240</v>
@@ -17624,7 +17612,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>243</v>
@@ -17738,7 +17726,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>246</v>
@@ -17852,7 +17840,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>249</v>
@@ -17964,7 +17952,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>253</v>
@@ -18076,7 +18064,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>254</v>
@@ -18190,7 +18178,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>255</v>
@@ -18306,7 +18294,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>256</v>
@@ -18420,7 +18408,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>259</v>
@@ -18534,7 +18522,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>262</v>
@@ -18648,7 +18636,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>266</v>
@@ -18762,7 +18750,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>270</v>
@@ -18876,13 +18864,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -18990,7 +18978,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>188</v>
@@ -19102,7 +19090,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>189</v>
@@ -19216,7 +19204,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>190</v>
@@ -19332,7 +19320,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>191</v>
@@ -19444,7 +19432,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>194</v>
@@ -19558,14 +19546,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>198</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -19584,13 +19572,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19653,16 +19641,16 @@
         <v>77</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>77</v>
@@ -19670,7 +19658,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>203</v>
@@ -19782,7 +19770,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>207</v>
@@ -19894,7 +19882,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>208</v>
@@ -20008,7 +19996,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>209</v>
@@ -20124,7 +20112,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>210</v>
@@ -20170,7 +20158,7 @@
         <v>77</v>
       </c>
       <c r="S156" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>77</v>
@@ -20238,7 +20226,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>216</v>
@@ -20352,7 +20340,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>221</v>
@@ -20464,7 +20452,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>225</v>
@@ -20576,7 +20564,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>226</v>
@@ -20690,7 +20678,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>227</v>
@@ -20806,7 +20794,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>228</v>
@@ -20920,7 +20908,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>233</v>
@@ -21034,7 +21022,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>237</v>
@@ -21148,7 +21136,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>240</v>
@@ -21262,7 +21250,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>243</v>
@@ -21376,7 +21364,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>246</v>
@@ -21490,7 +21478,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>249</v>
@@ -21602,7 +21590,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>253</v>
@@ -21714,7 +21702,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>254</v>
@@ -21828,7 +21816,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>255</v>
@@ -21944,7 +21932,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>256</v>
@@ -22058,7 +22046,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>259</v>
@@ -22172,7 +22160,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>262</v>
@@ -22286,7 +22274,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>266</v>
@@ -22400,7 +22388,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>270</v>
@@ -22514,13 +22502,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -22628,7 +22616,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>188</v>
@@ -22740,7 +22728,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>189</v>
@@ -22854,7 +22842,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>190</v>
@@ -22970,7 +22958,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>191</v>
@@ -23082,7 +23070,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>194</v>
@@ -23196,7 +23184,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>198</v>
@@ -23222,13 +23210,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M183" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -23291,13 +23279,13 @@
         <v>77</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -23308,7 +23296,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>203</v>
@@ -23420,7 +23408,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>207</v>
@@ -23532,7 +23520,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>208</v>
@@ -23646,7 +23634,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>209</v>
@@ -23762,7 +23750,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>210</v>
@@ -23808,7 +23796,7 @@
         <v>77</v>
       </c>
       <c r="S188" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T188" t="s" s="2">
         <v>77</v>
@@ -23876,7 +23864,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>216</v>
@@ -23990,7 +23978,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>221</v>
@@ -24102,7 +24090,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>225</v>
@@ -24214,7 +24202,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>226</v>
@@ -24328,7 +24316,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>227</v>
@@ -24444,7 +24432,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>228</v>
@@ -24558,7 +24546,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>233</v>
@@ -24672,7 +24660,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>237</v>
@@ -24786,7 +24774,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>240</v>
@@ -24900,7 +24888,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>243</v>
@@ -25014,7 +25002,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>246</v>
@@ -25128,7 +25116,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>249</v>
@@ -25240,7 +25228,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>253</v>
@@ -25352,7 +25340,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>254</v>
@@ -25466,7 +25454,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>255</v>
@@ -25582,7 +25570,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>256</v>
@@ -25696,7 +25684,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>259</v>
@@ -25810,7 +25798,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>262</v>
@@ -25924,7 +25912,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>266</v>
@@ -26038,7 +26026,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>270</v>
@@ -26152,13 +26140,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -26266,7 +26254,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>188</v>
@@ -26378,7 +26366,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>189</v>
@@ -26492,7 +26480,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>190</v>
@@ -26608,7 +26596,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>191</v>
@@ -26720,7 +26708,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>194</v>
@@ -26834,7 +26822,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>198</v>
@@ -26860,13 +26848,13 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L215" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M215" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M215" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -26929,13 +26917,13 @@
         <v>77</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>77</v>
@@ -26946,7 +26934,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>203</v>
@@ -27058,7 +27046,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>207</v>
@@ -27170,7 +27158,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>208</v>
@@ -27284,7 +27272,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>209</v>
@@ -27400,7 +27388,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>210</v>
@@ -27446,7 +27434,7 @@
         <v>77</v>
       </c>
       <c r="S220" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T220" t="s" s="2">
         <v>77</v>
@@ -27514,7 +27502,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>216</v>
@@ -27628,7 +27616,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>221</v>
@@ -27740,7 +27728,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>225</v>
@@ -27852,7 +27840,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>226</v>
@@ -27966,7 +27954,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>227</v>
@@ -28082,7 +28070,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>228</v>
@@ -28196,7 +28184,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>233</v>
@@ -28310,7 +28298,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>237</v>
@@ -28424,7 +28412,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>240</v>
@@ -28538,7 +28526,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>243</v>
@@ -28652,7 +28640,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>246</v>
@@ -28766,7 +28754,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>249</v>
@@ -28878,7 +28866,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>253</v>
@@ -28990,7 +28978,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>254</v>
@@ -29104,7 +29092,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>255</v>
@@ -29220,7 +29208,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>256</v>
@@ -29334,7 +29322,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>259</v>
@@ -29448,7 +29436,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>262</v>
@@ -29562,7 +29550,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>266</v>
@@ -29676,7 +29664,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>270</v>
@@ -29790,13 +29778,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>77</v>
@@ -29904,7 +29892,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>188</v>
@@ -30016,7 +30004,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>189</v>
@@ -30130,7 +30118,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>190</v>
@@ -30246,7 +30234,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>191</v>
@@ -30358,7 +30346,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>194</v>
@@ -30472,7 +30460,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>198</v>
@@ -30498,7 +30486,7 @@
         <v>88</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L247" t="s" s="2">
         <v>200</v>
@@ -30584,7 +30572,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>203</v>
@@ -30696,7 +30684,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>207</v>
@@ -30808,7 +30796,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>208</v>
@@ -30922,7 +30910,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>209</v>
@@ -31038,7 +31026,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>210</v>
@@ -31084,7 +31072,7 @@
         <v>77</v>
       </c>
       <c r="S252" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T252" t="s" s="2">
         <v>77</v>
@@ -31152,7 +31140,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>216</v>
@@ -31266,7 +31254,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>221</v>
@@ -31378,7 +31366,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>225</v>
@@ -31490,7 +31478,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>226</v>
@@ -31604,7 +31592,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>227</v>
@@ -31720,7 +31708,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>228</v>
@@ -31834,7 +31822,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>233</v>
@@ -31948,7 +31936,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>237</v>
@@ -32062,7 +32050,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>240</v>
@@ -32176,7 +32164,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>243</v>
@@ -32290,7 +32278,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>246</v>
@@ -32404,7 +32392,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>249</v>
@@ -32516,7 +32504,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>253</v>
@@ -32628,7 +32616,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>254</v>
@@ -32742,7 +32730,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>255</v>
@@ -32858,7 +32846,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>256</v>
@@ -32972,7 +32960,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>259</v>
@@ -33086,7 +33074,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>262</v>
@@ -33200,7 +33188,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>266</v>
@@ -33314,7 +33302,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>270</v>
@@ -33428,13 +33416,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>77</v>
@@ -33542,7 +33530,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>188</v>
@@ -33654,7 +33642,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>189</v>
@@ -33768,7 +33756,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>190</v>
@@ -33884,7 +33872,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>191</v>
@@ -33996,7 +33984,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>194</v>
@@ -34110,7 +34098,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>198</v>
@@ -34136,13 +34124,13 @@
         <v>77</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L279" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M279" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M279" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -34205,13 +34193,13 @@
         <v>77</v>
       </c>
       <c r="AJ279" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AK279" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>77</v>
@@ -34222,7 +34210,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>203</v>
@@ -34334,7 +34322,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>207</v>
@@ -34446,7 +34434,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>208</v>
@@ -34560,7 +34548,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>209</v>
@@ -34676,7 +34664,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>210</v>
@@ -34722,7 +34710,7 @@
         <v>77</v>
       </c>
       <c r="S284" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T284" t="s" s="2">
         <v>77</v>
@@ -34790,7 +34778,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>216</v>
@@ -34904,7 +34892,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>221</v>
@@ -35016,7 +35004,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>225</v>
@@ -35128,7 +35116,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>226</v>
@@ -35242,7 +35230,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>227</v>
@@ -35358,7 +35346,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>228</v>
@@ -35472,7 +35460,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>233</v>
@@ -35586,7 +35574,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>237</v>
@@ -35700,7 +35688,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>240</v>
@@ -35814,7 +35802,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>243</v>
@@ -35928,7 +35916,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>246</v>
@@ -36042,7 +36030,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>249</v>
@@ -36154,7 +36142,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>253</v>
@@ -36266,7 +36254,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>254</v>
@@ -36380,7 +36368,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>255</v>
@@ -36496,7 +36484,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>256</v>
@@ -36610,7 +36598,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>259</v>
@@ -36724,7 +36712,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>262</v>
@@ -36838,7 +36826,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>266</v>
@@ -36952,7 +36940,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>270</v>
@@ -37066,13 +37054,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D305" t="s" s="2">
         <v>77</v>
@@ -37180,7 +37168,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>188</v>
@@ -37292,7 +37280,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>189</v>
@@ -37406,7 +37394,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>190</v>
@@ -37522,7 +37510,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>191</v>
@@ -37634,7 +37622,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>194</v>
@@ -37748,7 +37736,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>198</v>
@@ -37774,13 +37762,13 @@
         <v>77</v>
       </c>
       <c r="K311" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L311" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M311" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="L311" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M311" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="N311" s="2"/>
       <c r="O311" s="2"/>
@@ -37843,13 +37831,13 @@
         <v>77</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AK311" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>77</v>
@@ -37860,7 +37848,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>203</v>
@@ -37972,7 +37960,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>207</v>
@@ -38084,7 +38072,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>208</v>
@@ -38198,7 +38186,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>209</v>
@@ -38314,7 +38302,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>210</v>
@@ -38360,7 +38348,7 @@
         <v>77</v>
       </c>
       <c r="S316" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T316" t="s" s="2">
         <v>77</v>
@@ -38428,7 +38416,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>216</v>
@@ -38542,7 +38530,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>221</v>
@@ -38654,7 +38642,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>225</v>
@@ -38766,7 +38754,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>226</v>
@@ -38880,7 +38868,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>227</v>
@@ -38996,7 +38984,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>228</v>
@@ -39110,7 +39098,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>233</v>
@@ -39224,7 +39212,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>237</v>
@@ -39338,7 +39326,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>240</v>
@@ -39452,7 +39440,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>243</v>
@@ -39566,7 +39554,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>246</v>
@@ -39680,7 +39668,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>249</v>
@@ -39792,7 +39780,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>253</v>
@@ -39904,7 +39892,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>254</v>
@@ -40018,7 +40006,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>255</v>
@@ -40134,7 +40122,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>256</v>
@@ -40248,7 +40236,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>259</v>
@@ -40362,7 +40350,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>262</v>
@@ -40476,7 +40464,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>266</v>
@@ -40590,7 +40578,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>270</v>
@@ -40704,13 +40692,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D337" t="s" s="2">
         <v>77</v>
@@ -40818,7 +40806,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>188</v>
@@ -40930,7 +40918,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>189</v>
@@ -41044,7 +41032,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>190</v>
@@ -41160,7 +41148,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>191</v>
@@ -41272,7 +41260,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>194</v>
@@ -41386,7 +41374,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>198</v>
@@ -41412,13 +41400,13 @@
         <v>77</v>
       </c>
       <c r="K343" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L343" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M343" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="L343" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M343" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="N343" s="2"/>
       <c r="O343" s="2"/>
@@ -41481,13 +41469,13 @@
         <v>77</v>
       </c>
       <c r="AJ343" t="s" s="2">
-        <v>620</v>
+        <v>77</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AL343" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AM343" t="s" s="2">
         <v>77</v>
@@ -41498,7 +41486,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>203</v>
@@ -41610,7 +41598,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>207</v>
@@ -41722,7 +41710,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>208</v>
@@ -41836,7 +41824,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>209</v>
@@ -41952,7 +41940,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>210</v>
@@ -41998,7 +41986,7 @@
         <v>77</v>
       </c>
       <c r="S348" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T348" t="s" s="2">
         <v>77</v>
@@ -42066,7 +42054,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>216</v>
@@ -42180,7 +42168,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>221</v>
@@ -42292,7 +42280,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>225</v>
@@ -42404,7 +42392,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>226</v>
@@ -42518,7 +42506,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>227</v>
@@ -42634,7 +42622,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>228</v>
@@ -42748,7 +42736,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>233</v>
@@ -42862,7 +42850,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>237</v>
@@ -42976,7 +42964,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>240</v>
@@ -43090,7 +43078,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>243</v>
@@ -43204,7 +43192,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>246</v>
@@ -43318,7 +43306,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>249</v>
@@ -43430,7 +43418,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>253</v>
@@ -43542,7 +43530,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>254</v>
@@ -43656,7 +43644,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>255</v>
@@ -43772,7 +43760,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>256</v>
@@ -43886,7 +43874,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>259</v>
@@ -44000,7 +43988,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>262</v>
@@ -44114,7 +44102,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>266</v>
@@ -44228,7 +44216,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>270</v>
@@ -44342,13 +44330,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>77</v>
@@ -44456,7 +44444,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>188</v>
@@ -44568,7 +44556,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>189</v>
@@ -44682,7 +44670,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>190</v>
@@ -44798,7 +44786,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>191</v>
@@ -44910,7 +44898,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>194</v>
@@ -45024,7 +45012,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>198</v>
@@ -45050,13 +45038,13 @@
         <v>77</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
@@ -45119,13 +45107,13 @@
         <v>77</v>
       </c>
       <c r="AJ375" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AK375" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL375" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AM375" t="s" s="2">
         <v>77</v>
@@ -45136,7 +45124,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>203</v>
@@ -45248,7 +45236,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>207</v>
@@ -45360,7 +45348,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>208</v>
@@ -45474,7 +45462,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>209</v>
@@ -45590,7 +45578,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>210</v>
@@ -45636,7 +45624,7 @@
         <v>77</v>
       </c>
       <c r="S380" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T380" t="s" s="2">
         <v>77</v>
@@ -45704,7 +45692,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>216</v>
@@ -45818,7 +45806,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>221</v>
@@ -45930,7 +45918,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>225</v>
@@ -46042,7 +46030,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>226</v>
@@ -46156,7 +46144,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>227</v>
@@ -46272,7 +46260,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>228</v>
@@ -46386,7 +46374,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>233</v>
@@ -46500,7 +46488,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>237</v>
@@ -46614,7 +46602,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>240</v>
@@ -46728,7 +46716,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>243</v>
@@ -46842,7 +46830,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>246</v>
@@ -46956,7 +46944,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>249</v>
@@ -47068,7 +47056,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>253</v>
@@ -47180,7 +47168,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>254</v>
@@ -47294,7 +47282,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>255</v>
@@ -47410,7 +47398,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>256</v>
@@ -47524,7 +47512,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>259</v>
@@ -47638,7 +47626,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>262</v>
@@ -47752,7 +47740,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>266</v>
@@ -47866,7 +47854,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>270</v>
@@ -47980,10 +47968,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" t="s" s="2">
@@ -48006,19 +47994,19 @@
         <v>88</v>
       </c>
       <c r="K401" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="L401" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M401" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="N401" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="L401" t="s" s="2">
+      <c r="O401" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="M401" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="N401" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="O401" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="P401" t="s" s="2">
         <v>77</v>
@@ -48067,7 +48055,7 @@
         <v>77</v>
       </c>
       <c r="AF401" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="AG401" t="s" s="2">
         <v>78</v>
